--- a/public/Plantillas/Reporte-Empresas.xlsx
+++ b/public/Plantillas/Reporte-Empresas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ESPE_2023\sistema_vinculacion\sistema_vinculacion\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C409C-4896-43AA-81FF-86C18DBF3AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4489E44-2906-425E-A733-90775DB69E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$M$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>N|</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Reporte de Empresas</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -78,13 +76,22 @@
   </si>
   <si>
     <t>Fecha de modificacion</t>
+  </si>
+  <si>
+    <t>REPORTE DE EMPRESAS</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,24 +100,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40456C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -153,30 +174,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -185,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF40456C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,128 +230,84 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253712</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150947</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2385060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12374</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Imagen de consulta de la búsqueda visual">
+        <xdr:cNvPr id="5" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC82C9-45B8-9094-6C4C-39E0D45CB500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51681C8E-6CAE-4E02-BC16-85EE55FDFB57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="449580"/>
-          <a:ext cx="2971800" cy="766754"/>
+          <a:off x="17814348" y="150947"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>545097</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2684</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:rowOff>32212</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1333146</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Computación Gráfica – Archivos Espe">
+        <xdr:cNvPr id="6" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E508E97-75FD-C968-BB16-BFF5E73BB25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C66B08A-7624-4629-A1A9-D32E2A2D94FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="37107242" y="401883"/>
-          <a:ext cx="3420413" cy="835327"/>
+          <a:off x="6808729" y="205394"/>
+          <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -622,121 +610,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="77.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.88671875" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="41.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41.109375" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" customWidth="1"/>
-    <col min="11" max="11" width="36.44140625" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1"/>
-    <col min="13" max="13" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
     <col min="14" max="14" width="25.44140625" customWidth="1"/>
     <col min="22" max="22" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:N1"/>
+  <autoFilter ref="A8:M8" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}"/>
+  <mergeCells count="5">
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N8:V8"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -745,6 +795,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -971,15 +1030,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -989,6 +1039,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1007,14 +1065,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
   <ds:schemaRefs>

--- a/public/Plantillas/Reporte-Empresas.xlsx
+++ b/public/Plantillas/Reporte-Empresas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4489E44-2906-425E-A733-90775DB69E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1E170-1DE4-4E50-A66B-ED3870E77F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE SEDE SANTO DOMINGO</t>
   </si>
   <si>
-    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
+    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -232,45 +232,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>253712</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>150947</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51681C8E-6CAE-4E02-BC16-85EE55FDFB57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17814348" y="150947"/>
-          <a:ext cx="571500" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2684</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -291,7 +252,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -611,7 +572,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,15 +756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -1030,6 +982,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1039,14 +1000,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1065,6 +1018,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F8F01B-42E4-4ED9-9137-CD8DE7B67D7E}">
   <ds:schemaRefs>

--- a/public/Plantillas/Reporte-Empresas.xlsx
+++ b/public/Plantillas/Reporte-Empresas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis_version\tesis2\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21DFFA-C009-4835-B08E-04F4CA23E4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9886992-E667-4F0B-9AB4-85513E99F0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{E868ECBF-1759-4E94-BEB5-846D8DEB5231}"/>
   </bookViews>
@@ -224,20 +224,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2684</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>32212</xdr:rowOff>
+      <xdr:colOff>820880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156729</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1428750" cy="476250"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1463571</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C66B08A-7624-4629-A1A9-D32E2A2D94FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270C6D82-F4A5-46E0-9AFE-252EF06B2027}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,15 +251,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6808729" y="205394"/>
-          <a:ext cx="1428750" cy="476250"/>
+          <a:off x="7644244" y="156729"/>
+          <a:ext cx="2461100" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,7 +273,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -565,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE16FFB-0DBF-4542-BF2E-0694577CABAA}">
   <dimension ref="A1:V902"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14145,6 +14156,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E3D40D7370BE704D9F987D37C7518305" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="713a4ab37a2269b86b211ad079bba34f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33c8bdda-defa-435a-b09b-17c633094ed5" xmlns:ns4="5e78a4f3-a9b1-4fe1-9da0-d43cac8a1c9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="799d028bd5d959863f471fdad4996989" ns3:_="" ns4:_="">
     <xsd:import namespace="33c8bdda-defa-435a-b09b-17c633094ed5"/>
@@ -14371,15 +14391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14389,6 +14400,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6CAFB9-21A0-4331-A882-841105351FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14403,14 +14422,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7F9947-D4DB-49D0-81FC-207E2ECAB2E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
